--- a/results/metric_df/ECA_metrics.xlsx
+++ b/results/metric_df/ECA_metrics.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,14 +425,907 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>glycan</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>binding_score</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>SASA</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>flexibility</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Q</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>theta</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>conformation</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>monosaccharides</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>motifs</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>class</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-0.1114794133050077</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.488746614678542</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.45695</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.4555</v>
+      </c>
+      <c r="F2" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.5842861123756338</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.922537504205238</v>
+      </c>
+      <c r="D3" t="n">
+        <v>19.58035196480352</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.4425</v>
+      </c>
+      <c r="F3" t="n">
+        <v>7</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2336039663390174</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.315462523559917</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7807833333333334</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.419</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3165011134502247</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.095696026530681</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.35245</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4615</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8.545</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2228002293503582</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.839862977009192</v>
+      </c>
+      <c r="D6" t="n">
+        <v>38.81119986998699</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.4305</v>
+      </c>
+      <c r="F6" t="n">
+        <v>9.94</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1034836466343518</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1.828098178284811</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.84926826015935</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.45175</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.8825</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.5842861123756338</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.015847993161443</v>
+      </c>
+      <c r="D8" t="n">
+        <v>17.11223979540811</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.45525</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5.3425</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.5842861123756338</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.072921512690588</v>
+      </c>
+      <c r="D9" t="n">
+        <v>6.6333</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.487</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10.735</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)Glc(b1-6)[Gal(b1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>4.941239024886706</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.431690046963775</v>
+      </c>
+      <c r="D10" t="n">
+        <v>2.623493206234931</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.444</v>
+      </c>
+      <c r="F10" t="n">
+        <v>7.275</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3392829042088505</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.597512620302648</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.9847586669904439</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.404</v>
+      </c>
+      <c r="F11" t="n">
+        <v>8.209999999999999</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.728391074794685</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.224273281242684</v>
+      </c>
+      <c r="D12" t="n">
+        <v>31.606575</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.457</v>
+      </c>
+      <c r="F12" t="n">
+        <v>10.39</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6407006837513012</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.19766197407428</v>
+      </c>
+      <c r="D13" t="n">
+        <v>18.7132125</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="F13" t="n">
+        <v>7.955</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.236169299509571</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.476045733589508</v>
+      </c>
+      <c r="D14" t="n">
+        <v>16.46180618061806</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="F14" t="n">
+        <v>7.33</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5410162394975558</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.047297700897916</v>
+      </c>
+      <c r="D15" t="n">
+        <v>27.53785714285714</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.479</v>
+      </c>
+      <c r="F15" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.5149460603796022</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.244920453422627</v>
+      </c>
+      <c r="D16" t="n">
+        <v>44.48635178571428</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.42025</v>
+      </c>
+      <c r="F16" t="n">
+        <v>8.52375</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-4)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>2.551517554061811</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.669142786290044</v>
+      </c>
+      <c r="D17" t="n">
+        <v>1.817538246175381</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.4565</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3.925</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>lipid/free</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>1.988054567157431</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.63639127321597</v>
+      </c>
+      <c r="D18" t="n">
+        <v>4.35031503150315</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.415</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6.54</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.951688089354304</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.626073631843238</v>
+      </c>
+      <c r="D19" t="n">
+        <v>5.137133333333335</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.4355</v>
+      </c>
+      <c r="F19" t="n">
+        <v>9.370000000000001</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.794850477719944</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.3684476110844</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.6741</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.453</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4.105</v>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>-0.3117020153693437</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.159511275528813</v>
+      </c>
+      <c r="D21" t="n">
+        <v>36.08047857142857</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.4775</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5.715</v>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['4C1', '4C1']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>N</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/results/metric_df/ECA_metrics.xlsx
+++ b/results/metric_df/ECA_metrics.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,17 +446,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>SASA</t>
+          <t>monosaccharides</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>sum_SASA</t>
+          <t>motifs</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>max_SASA</t>
+          <t>sasa</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -466,129 +466,646 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Q</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>theta</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>conformation</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>monosaccharides</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>motifs</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>class</t>
+          <t>has_multi_node_motifs</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
+          <t>Fuc(a1-2)Gal(b1-3)GlcNAc(b1-3)[Gal(b1-4)GlcNAc(b1-6)]Gal(b1-4)Glc</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.2336039663390174</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.315462523559917</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.630925047119835</v>
+        <v>-0.1114794133050077</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
       </c>
       <c r="E2" t="n">
-        <v>2.459217179038713</v>
+        <v>4.977493229357083</v>
       </c>
       <c r="F2" t="n">
-        <v>0.7807833333333334</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0.419</v>
-      </c>
-      <c r="H2" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+        <v>4.216446420036954</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>Fuc(a1-2)Gal(b1-4)[Fuc(a1-3)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.5842861123756338</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>3.845075008410476</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.908066386220317</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2336039663390174</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>4.630925047119835</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.4892833949234936</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-0.3165011134502247</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>4.191392053061362</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.1766922270787392</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>-0.2228002293503582</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>7.359451908036769</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16.21420849441073</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.1034836466343518</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>7.312392713139245</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.582750526893246</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.5842861123756338</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>8.063391972645769</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9.532005358541284</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Fuc(a1-3)[Gal(b1-4)]GlcNAc(b1-3)[GlcNAc(b1-6)]Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.5842861123756338</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>4.145843025381176</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.375316762015688</v>
+      </c>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
           <t>Gal(b1-4)Glc(b1-6)[Gal(b1-4)]GlcNAc</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B10" t="n">
         <v>4.941239024886706</v>
       </c>
-      <c r="C3" t="n">
-        <v>2.431690046963775</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
         <v>4.86338009392755</v>
       </c>
-      <c r="E3" t="n">
-        <v>2.493045861463653</v>
-      </c>
-      <c r="F3" t="n">
-        <v>2.623493206234931</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0.444</v>
-      </c>
-      <c r="H3" t="n">
-        <v>7.275</v>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>['4C1', '4C1']</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)', 'GlcNAc(b1-1)']</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>['Gal(b1-4)GlcNAc']</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
+      <c r="F10" t="n">
+        <v>1.315224449810163</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.3392829042088505</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>5.195025240605295</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.617105979591545</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>2.728391074794685</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>8.897093124970738</v>
+      </c>
+      <c r="F12" t="n">
+        <v>15.84518691184906</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)[Fuc(a1-6)]GlcNAc</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.6407006837513012</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>8.79064789629712</v>
+      </c>
+      <c r="F13" t="n">
+        <v>8.52855773848696</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>-0.236169299509571</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>4.952091467179017</v>
+      </c>
+      <c r="F14" t="n">
+        <v>4.58484764709251</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)Man(a1-6)[GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.5410162394975558</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>4.094595401795831</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7.669685704114997</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-4)]Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>-0.5149460603796022</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-4)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>17.95936362738102</v>
+      </c>
+      <c r="F16" t="n">
+        <v>31.86021349178649</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)[Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.4309194291824807</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>12.0181952149548</v>
+      </c>
+      <c r="F17" t="n">
+        <v>18.20913315747712</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-2)[Gal(b1-4)GlcNAc(b1-6)]Man(a1-6)[GlcNAc(b1-4)][Gal(b1-4)GlcNAc(b1-2)Man(a1-3)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-0.3141738490032836</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-2)', 'Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>12.98908150962363</v>
+      </c>
+      <c r="F18" t="n">
+        <v>11.10692130290585</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)Glc</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2.551517554061811</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>5.338285572580087</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.91117855161729</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>1.988054567157431</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>5.27278254643194</v>
+      </c>
+      <c r="F20" t="n">
+        <v>2.180924532303609</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc(b1-3)Gal(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.951688089354304</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-3)']</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>5.252147263686476</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.839554809126105</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Gal(b1-4)GlcNAc(b1-6)[Gal(b1-3)]GalNAc</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.794850477719944</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-6)']</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>4.736895222168799</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.841920588764351</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>Neu5Ac(a2-3)Gal(b1-4)GlcNAc(b1-2)Man(a1-3)[Gal(b1-4)GlcNAc(b1-2)Man(a1-6)]Man(b1-4)GlcNAc(b1-4)GlcNAc</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>-0.3117020153693437</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)', 'GlcNAc(b1-2)']</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>['Gal(b1-4)GlcNAc']</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>4.319022551057627</v>
+      </c>
+      <c r="F23" t="n">
+        <v>8.221849795396434</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
